--- a/team_specific_matrix/Loyola (LA)_A.xlsx
+++ b/team_specific_matrix/Loyola (LA)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.2761904761904762</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.2432432432432433</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1038961038961039</v>
       </c>
     </row>
   </sheetData>
